--- a/biology/Microbiologie/Enteridium/Enteridium.xlsx
+++ b/biology/Microbiologie/Enteridium/Enteridium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enteridium est un genre de champignons myxomycètes de la famille des Reticulariaceae. 
-Selon Index Fungorum                                      (12 juin 2013)[1], Enteridium est un nom non valide, et est remplacé par Reticularia. 
-Selon MycoBank                                            (12 juin 2013)[2], c’est le contraire : Enteridium est un nom valide, et Reticularia est non valide. 
+Selon Index Fungorum                                      (12 juin 2013), Enteridium est un nom non valide, et est remplacé par Reticularia. 
+Selon MycoBank                                            (12 juin 2013), c’est le contraire : Enteridium est un nom valide, et Reticularia est non valide. 
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (12 juin 2013)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (12 juin 2013) :
 Enteridium lycoperdon (Bull.) M.L. Farr
-Selon NCBI  (12 juin 2013)[4] :
+Selon NCBI  (12 juin 2013) :
 Enteridium splendens</t>
         </is>
       </c>
